--- a/data_year/zb/科技/按支出用途分全国研究与试验发展经费支出.xlsx
+++ b/data_year/zb/科技/按支出用途分全国研究与试验发展经费支出.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI4"/>
+  <dimension ref="A1:BI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,194 +738,82 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3.56637</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.48832</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.801310000000001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.83318</v>
-      </c>
-      <c r="F2" t="n">
-        <v>88.34784000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10.66316</v>
-      </c>
-      <c r="H2" t="n">
-        <v>146.47625</v>
-      </c>
-      <c r="I2" t="n">
-        <v>11.04106</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.33423</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.97115</v>
-      </c>
-      <c r="L2" t="n">
-        <v>10.71772</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.73455</v>
-      </c>
-      <c r="N2" t="n">
-        <v>893.9213999999999</v>
-      </c>
-      <c r="O2" t="n">
-        <v>416.14065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3131.29488</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>439.98458</v>
-      </c>
-      <c r="R2" t="n">
-        <v>33.72845</v>
-      </c>
-      <c r="S2" t="n">
-        <v>14.87383</v>
-      </c>
-      <c r="T2" t="n">
-        <v>53.0341</v>
-      </c>
-      <c r="U2" t="n">
-        <v>15.94782</v>
-      </c>
-      <c r="V2" t="n">
-        <v>35.23256</v>
-      </c>
-      <c r="W2" t="n">
-        <v>14.56955</v>
-      </c>
-      <c r="X2" t="n">
-        <v>119.40718</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>15.71681</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>76.76945000000001</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>67.48475000000001</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>367.72188</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>83.81363</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.78032</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.25984</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1.36578</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.26127</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.84989</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.31205</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>2.1991</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.34735</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>8.37412</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>5.03632</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>28.99686</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>5.15831</v>
-      </c>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>1431.46051</v>
+        <v>1667.0047</v>
       </c>
       <c r="AQ2" t="n">
-        <v>748.38271</v>
+        <v>934.8058</v>
       </c>
       <c r="AR2" t="n">
-        <v>4868.78926</v>
+        <v>5925.2528</v>
       </c>
       <c r="AS2" t="n">
-        <v>933.31765</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>220.86744</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>191.44899</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>808.79551</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>329.89503</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>14.72956</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>3.63414</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>40.9838</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>4.2243</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>50.60982</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>20.15045</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>148.27433</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>22.00233</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0.34906</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.34951</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.72056</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.35743</v>
-      </c>
+        <v>1137.3248</v>
+      </c>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -969,16 +857,16 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="n">
-        <v>1667.0047</v>
+        <v>2104.4229</v>
       </c>
       <c r="AQ3" t="n">
-        <v>934.8058</v>
+        <v>1150.3996</v>
       </c>
       <c r="AR3" t="n">
-        <v>5925.2528</v>
+        <v>7335.3585</v>
       </c>
       <c r="AS3" t="n">
-        <v>1137.3248</v>
+        <v>1351.6535</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
@@ -997,81 +885,6 @@
       <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="n">
-        <v>2104.4229</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>1150.3996</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>7335.3585</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>1351.6535</v>
-      </c>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
-      <c r="BE4" t="inlineStr"/>
-      <c r="BF4" t="inlineStr"/>
-      <c r="BG4" t="inlineStr"/>
-      <c r="BH4" t="inlineStr"/>
-      <c r="BI4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
